--- a/data/hotels_by_city/Dallas/Dallas_shard_1.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="187">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Sadie S</t>
+  </si>
+  <si>
     <t>05/27/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>carriej11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r578111387-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -192,6 +198,9 @@
     <t>I loved the front desk. I loved the lobby/bar area. I loved that the drinks weren't through-the-roof expensive. I loved my room. I loved my free market item. I loved the beds. I loved the towels and the shower and shampoo in the bathrooms.  I loved that Neiman Marcus was right across the street. :-)I stayed here for a work event and was really pleased with my experience.  The front desk staff is WAY above par. I would stay here again!</t>
   </si>
   <si>
+    <t>Nicole E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r571152827-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -213,6 +222,9 @@
     <t>This is a very nice, unique hotel. Beds are comfy, rooms are spacious enough, but not huge. Bathrooms are large; but the bathroom has a sliding glass door that provides no noise reduction and you can see a silhouette through it, but no details. So be careful who you share a room with! Lobby is nice, and the breakfast is really tasty - but $15 a person. The elevators can be kind of tricky - they are “smart” and you have to enter your floor before you get on or you are just kind of along for the ride! Overall, we liked this hotel and were treated very well by the courteous front desk staff. Oh, you basically have to do valet parking because there is no parking garage and there’s surface lots close by, but we were worried about security in those.More</t>
   </si>
   <si>
+    <t>Keeley G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r571087302-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -231,6 +243,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>kinley329</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r563035671-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t>I was in Dallas this weekend with Cheer Athletics for one of the largest cheerleading events in the World. Its a very stressful weekend so wanted to stay somewhere close to take a little stress off the weekend. They were so accomadating, clean, and easy to get to and from room. One of my favorite aspects was the elevators. You select what floor youre going to from outside the elevator and that way it can accomadate the best "car" to take so you are not in an elevator going up and down with any button being pressed inside the elevator. Loved it!!More</t>
   </si>
   <si>
+    <t>50pgeorge</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r562702835-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -279,6 +297,9 @@
     <t>We had a short weekend to hang out in downtown and ended up the same weekend as there was a very large cheer competition in town.  Surprisingly our room was very quiet.  It was comfortable, modern, and my wife loved the shower complete with rain showerhead.  Gym was above average.  Lobby was less opulent than others in this price range, but nice.  We would stay here again.More</t>
   </si>
   <si>
+    <t>keblackwell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r561511508-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -303,6 +324,9 @@
     <t>My husband and I stayed here on a weekend trip to Dallas and loved this hotel! Since he is a Platinum Marriott member we were upgraded to a corner King room on the sixth floor. This hotel is brand new and the room was very spacious and clean. The bed and pillows were super comfortable for a category 5 Marriott hotel. I loved that there were laminate floors throughout the room instead of carpet, it makes the room seem so much cleaner. The shower was amazing with both a rainfall shower head and traditional!  Others have complained about the noise at this hotel but the music playing in the lobby etc was barely noticeable during our stay so perhaps they have heard the complaints and turned it down. There is no dresser in the room, just a very small open closet, but that didn't bother us. They gave us a $10 coupon to use at breakfast or for coffee since my husband is a Platinum member and there is no lounge. We will definitely stay here again when we come back to Dallas.More</t>
   </si>
   <si>
+    <t>guymarcroy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r560735846-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -324,6 +348,9 @@
     <t>Took a weekend trip to Dallas to meet up with some friends.  Booked the AC Hotel based on prior experience with AC Hotels in Europe.  Hotel appears to be new, lobby was clean and nicely furnished, and valet service was excellent (text to request car).  Warm greeting from front desk personnel, quick check-in process, and nice corner room.  Elevator system is a bit strange and required a couple of re-boots while there, but ultimately worked well.  Room was large, clean and nicely appointed, albeit sterile.  Everything worked well and the housekeeping staff were friendly and helpful.  Although the facility is nice, Diana in the breakfast area is the reason to return. She was so helpful and friendly, a great conversationalist, and is a true asset to the hotel.  Thank you, Diana, for making our stay special.More</t>
   </si>
   <si>
+    <t>Louis D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r555729139-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -345,6 +372,9 @@
     <t>This hotel is definitely a very unique place. It's only been open 3 months. When I arrived  I asked for a upgrade, I was put on the 10th floor corner room with great view of the city.  Everything about this place is unique, I've  posted plenty of pictures.  If you have questions please feel free to contact. In the mean time enjoy the photos. More</t>
   </si>
   <si>
+    <t>RAHTrip</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r555156939-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -363,6 +393,9 @@
     <t>My wife and I stayed here off a reward from the fall mega bonus challenge. When you earn these award stays they max out at category five hotels. Most of the time that caps you off at a courtyard level property. This hotel was much nicer than that. I’ll use my reward stays here again. It is a bit loud from downtown traffic, but earplugs and sound machine app took care of that. I recommend this property nonetheless.More</t>
   </si>
   <si>
+    <t>Lori D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r554833969-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -381,6 +414,9 @@
     <t>I disagree with other reviews that it was noisy.  I was on the 6th and it was very quiet.  The room is modern and minimalist but the bed is comfortable.  The gym is very nice but shared with their sister Hotel next door.  For the following reasons I can’t give them a higher rating.  My room was not cleaned from the previous people and though it was cleaned, the shampoos and body soap were not changed out.  I stayed two nights and they did not replenish the bottle water or clean the sink.  Also thought there is coffee in the room they do NOT offer free coffee in the lobby in the morning.  They have a bar in the lobby with only a limited food offering, so if you hungry don’t eat here.  The staff was very friendly and had no complaints with any of the staff I interacted with.More</t>
   </si>
   <si>
+    <t>JeepNYC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r554298274-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -397,6 +433,9 @@
   </si>
   <si>
     <t>The Dallas AC is brand spanking new, with pop music blaring out as you alight from your cab, and a check in adjacent to the trendy lounge and bar area. Hey, I'm cool, we're cool, everyone's cool. Yes, Dallas appears to be a conference goers dream, but this is Dallas, baby.And then you go to your room. It's tiny. I've seen smaller rooms... I think. The bathroom has a sliding glass door, making it inappropriate for everyone but [a] single people, perhaps like those attending a conference, and [b] nope, there isn't anyone else. My wife and I have been married for 15 years, but I've tried to protect her from some things (UNTIL NOW). But it is VERY clean and there's nowhere to unpack your clothes but a long bench and a few hangers, which makes some sort of sense I suppose.Fortunately, it's quiet and comfortable, right? NOPE. This hotel has some of the worst soundproofing I've experienced. I heard what my next door neighbors discussing what to have for dinner, I heard upstairs doing what I presume is the flamenco, and I heard people in the street below.  Oh, and my wife says the bed was really uncomfortable.More</t>
+  </si>
+  <si>
+    <t>Kent M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r553797501-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
@@ -423,6 +462,9 @@
 The modern bathrooms were also dark.  I liked the modern bathroom look, but the lighting for shaving was terrible.  I do...This is supposed to be a business traveler hotel, and yet the music in the lobby was as loud as a nightclub.  We could not even hold a conversation in the lobby without walking outside.  I asked the front desk to turn it down, and they said it was "pre-programmed".  Seriously?  The volume of the music in the lobby is not controllable by the staff?  Talk about not trusting employees.  Remind me never to apply to work for Marriott.While the rooms were clean for sure, the room itself can only be described as stark.  The walls were darker brown, fake paneling, and there were NO wall decorations; just a big screen TV.  There was also no dresser/chesterdrawers; only a long table.  The room felt more like a prison cell than a hotel room.  The same goes for the hallways, elevator, and front lobby.  I usually make fun of interior decorators for worrying about things I consider trivial, but this hotel showed me the value of a good one over a bad one.  I had no desire to "hang around" the hotel at all, either in the lobby or in the room.  The decor was "depressing" and "uninviting".Like another reviewer, I thought the walls were thin, and I had to turn on Pandora White Noise channel to sleep.The modern bathrooms were also dark.  I liked the modern bathroom look, but the lighting for shaving was terrible.  I do like the low flush toilets to save water, but the toilet itself was tiny.  I'm a very tall man, and the height and size of the toilet made it difficult to use.I was excited when I saw the double shower head, and I love stand up showers with doors instead of curtains.  I was disappointed that I couldn't run both shower heads at the same time, but overall I did like the shower.  One minor annoyance; there was a large metal cover over the drain, presumably to hide the drain from view.  Aesthetically, I like the cover, but because it was metal AND directly under the shower head, water dripped on it and made a sound that reminded me of metal stove pans clanging together.The staff was good; no complaints there.The breakfast was different.  I tried it one day, and I am NOT a picky eater.  I tried everything on the buffet (except cereal and pastries), and she brought me a special from the kitchen.  While most of it was good, it was so different from a traditional American breakfast that I had no desire to go again.  Let's face it, most Americans like our eggs and bacon/sausage, and my only egg options were cold hard boiled, or a single fried...More</t>
   </si>
   <si>
+    <t>Greg H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r553766257-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -444,6 +486,9 @@
 The staff is super friendly and can easily recommend to you nearby restaurants and things to see in downtown Dallas.  They seemed super knowledgeable about the surrounding...Stayed here for a quick business trip and was quite impressed.  Wifi was free without a password in the lobby and in the conference areas.  The lobby was quite stylish with a nice full-service bar that was open until 10:30pm (wish it closed a bit later). Just be aware that the music is REALLY loud as people have mentioned before.  It's great music, just makes it hard to have a conversation without really having to raise your voice. My room faced the front street so it had a nice view of the surrounding buildings, and most importantly, away from the noise of construction happening on buildings in the back.  SUGGESTION:  ask for a room that faces the front to avoid hearing construction early in the mornings.  A few of my colleagues were woken up from construction sounds quite early!The bathroom was super clean, no tub, but an elegant shower.  After spending 5 minutes trying to figure out the shower knobs, was a bit disappointed to realize that the water pressure wasn't high enough in the hotel to be able to fully use the overhead rain shower.  Seemed that the hot/cold wasn't getting enough pressure between the two -- so you either were freezing or scalding.  But the handheld shower worked just fine.The staff is super friendly and can easily recommend to you nearby restaurants and things to see in downtown Dallas.  They seemed super knowledgeable about the surrounding areas as well as some of the more unknown facets of the area.Great modern, clean hotel with just a few things to fix.  Would definitely recommend staying here again.More</t>
   </si>
   <si>
+    <t>A_Litle_Bit_OCD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r553410573-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -462,6 +507,9 @@
     <t>This is the loudest hotel I have ever stayed in.  While I did get a room upgrade because of my Platinum Elite status, it doesn't make up for the rest.  Many of my coworkers staying there had the same complaint.The music in the elevator room, lobby (even around the front desk) and the bar made it difficult to have a conversation including the one with the clerk to check in.The biggest problem was the Single Pane windows in the hotel (I was on the 4th floor) did nothing to prevent the street noise from coming in.The room was cold and hard.  It may look cool in the brochure, but it is not nice to stay in.  The closet could only hold 2 shirts and two pairs of pants.  Square toilets?  Seriously,  unless you're spongebob, it's not comfortable.  Putting the shower controls on the opposite side of the shower is dumb.  With the high efficiency showerhead that flows 1.5 Gallons per minute and pipe that holds .4 gallons per 10 feet (1") going all around a shower that is 5X10, you make an adjustment and wait and wait for the results...If you are going to have hard floors everywhere, at least have some rugs.There were no convenient outlets to plug in a laptop.The free bottled water in the fridge was nice, but housekeeping never refilled it.The premium internet connection was 10Mbps.More</t>
   </si>
   <si>
+    <t>Joseph R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r551244069-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -480,6 +528,9 @@
     <t>December 2017</t>
   </si>
   <si>
+    <t>Mariella I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r544889703-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -495,6 +546,9 @@
     <t>This was my first boutique hotel experience for business. I am used to several amenities at the hotels I stay at, so this was a bit different. They don’t have room service and the dining options on site are limited, as well as some of their in-room amenities. That being said, my room was nice, walking distance to everything, good, safe area, and the service at the front desk and breakfast was really good. For the price I paid (about $230) I think it was a good value for the stay.</t>
   </si>
   <si>
+    <t>amitchella</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r541964422-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -514,6 +568,9 @@
   </si>
   <si>
     <t>I believe this was another brand and renovated as an AC recently. The look and feel of the hotel is very minimalist and clean (lobby, restaurant and rooms). I don't mean basic however. Even the elevators were of the current design of you typing in your floor on the touchpad and it taking you to that floor only. I mistakenly got onto an open elevator with someone only to learn that it was only going to a specific floor. Actually nice for security but a good thing to know in advance.I stayed here 1 night during a business trip. I found the rooms to be of good size and with the amenities you would expect (including a safe). A nice touch was the small refrigerator for water and glasses. Again the rooms felt very clean and new.Do note that the restaurant in the lobby serves tapas. If you are in need of a hearty meal (or desire room service), the staff will kindly guide you to other dining options in the immediate area that are open late.I would stay at this property again and found it of good value and very comfortable. It does have a boutique kind of feel even though it is a Marriott brand.More</t>
+  </si>
+  <si>
+    <t>Ken S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r537983441-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
@@ -1036,43 +1093,47 @@
       <c r="A2" t="n">
         <v>66242</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>23213</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1086,50 +1147,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>66242</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>79792</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
         <v>53</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" t="s">
-        <v>52</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -1149,50 +1214,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>66242</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>10446</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1206,50 +1275,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>66242</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>117561</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1267,50 +1340,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>66242</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>117562</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -1328,56 +1405,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="X6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>66242</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>117563</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>81</v>
       </c>
-      <c r="J7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>76</v>
-      </c>
       <c r="O7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1393,56 +1474,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="X7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>66242</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>117564</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" t="s">
         <v>91</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>76</v>
-      </c>
-      <c r="O8" t="s">
-        <v>85</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -1460,56 +1545,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="X8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>66242</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>117565</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1525,56 +1614,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="X9" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>66242</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>2644</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="O10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1586,56 +1679,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="X10" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>66242</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>117566</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1647,56 +1744,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="X11" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="Y11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>66242</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>36141</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1708,56 +1809,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="X12" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="Y12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>66242</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>117567</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="O13" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -1775,56 +1880,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="X13" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>66242</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>14622</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -1842,50 +1951,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>66242</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>15774</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="K15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -1903,56 +2016,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="X15" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="Y15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>66242</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>117568</v>
+      </c>
+      <c r="C16" t="s">
+        <v>152</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="J16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="K16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -1972,50 +2089,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>66242</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>6580</v>
+      </c>
+      <c r="C17" t="s">
+        <v>159</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="J17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="K17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="O17" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2035,50 +2156,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>66242</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>117569</v>
+      </c>
+      <c r="C18" t="s">
+        <v>166</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="J18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="K18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="L18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2092,50 +2217,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>66242</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>117570</v>
+      </c>
+      <c r="C19" t="s">
+        <v>172</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="J19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="K19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="L19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -2155,50 +2284,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>66242</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>20741</v>
+      </c>
+      <c r="C20" t="s">
+        <v>180</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="J20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="K20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="L20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -2218,7 +2351,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_1.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -63,10 +63,10 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55711-d12204513-Reviews-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>114</t>
+    <t>23</t>
+  </si>
+  <si>
+    <t>109</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Dallas-Hotels-AC-Hotel-By-Marriott-Dallas-Downtown.h18228514.Hotel-Information</t>

--- a/data/hotels_by_city/Dallas/Dallas_shard_1.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="292">
   <si>
     <t>STR#</t>
   </si>
@@ -63,10 +63,10 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55711-d12204513-Reviews-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>109</t>
+    <t>38</t>
+  </si>
+  <si>
+    <t>93</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Dallas-Hotels-AC-Hotel-By-Marriott-Dallas-Downtown.h18228514.Hotel-Information</t>
@@ -147,21 +147,398 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Sadie S</t>
-  </si>
-  <si>
-    <t>05/27/2018</t>
+    <t>08/16/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r602444996-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>12204513</t>
+  </si>
+  <si>
+    <t>602444996</t>
+  </si>
+  <si>
+    <t>08/03/2018</t>
+  </si>
+  <si>
+    <t>Great Property in a Great Area</t>
+  </si>
+  <si>
+    <t>It was an enjoyable trip to Downtown Dallas.  There are many good area restaurants.  The hotel setup was odd sharing floors with the residence Inn. Next door is the Hampton Inn. Which creates a crowded valet area.  However the hotel was modern, the bar had a good selection and the breakfast was good.   The room is minimalistic but has all the necessary comforts.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r601311751-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>601311751</t>
+  </si>
+  <si>
+    <t>07/30/2018</t>
+  </si>
+  <si>
+    <t>Swank / Modern</t>
+  </si>
+  <si>
+    <t>Great hotel and great staff located in the heart of downtown Dallas. We enjoyed our stay room was cool and modern. We stayed one night but we were impressed and would definitely stay there again.The guys working the valet were helpful.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r599972085-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>599972085</t>
+  </si>
+  <si>
+    <t>07/26/2018</t>
+  </si>
+  <si>
+    <t>Fresh, new European flair in a Downtown Dallas location</t>
+  </si>
+  <si>
+    <t>The location was convenient to downtown Dallas.The staff was very friendly and took the extra effort to get to know me. The front desk remembered me from a prior trip. The bartender did, too and he also remembered my beverage of choice. Rooms have clean lines in a nice gray and white finish.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r598492175-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>598492175</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t>AC Hotel Dallas</t>
+  </si>
+  <si>
+    <t>AC Hotel was a great hotel.  Best hotel I have stayed in while in dallas.  Great place. Fun area with great downtown atmosphere. Very clean area, I love the elevators (New look -very different).  Hotel reminded me of my trip to Spain.MoreShow less</t>
+  </si>
+  <si>
+    <t>ACHotelDallas, Public Relations Manager at AC Hotel by Marriott Dallas Downtown, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>AC Hotel was a great hotel.  Best hotel I have stayed in while in dallas.  Great place. Fun area with great downtown atmosphere. Very clean area, I love the elevators (New look -very different).  Hotel reminded me of my trip to Spain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r598303000-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>598303000</t>
+  </si>
+  <si>
+    <t>07/21/2018</t>
+  </si>
+  <si>
+    <t>Love the Dallas AC</t>
+  </si>
+  <si>
+    <t>From check in to check out everything was great. The hotel is clean and contemporary and the staff strive to make you happy. The hotel bar is well stocked, and breakfast was delicious. All in all, it’s a great new hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>From check in to check out everything was great. The hotel is clean and contemporary and the staff strive to make you happy. The hotel bar is well stocked, and breakfast was delicious. All in all, it’s a great new hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r597486658-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>597486658</t>
+  </si>
+  <si>
+    <t>07/18/2018</t>
+  </si>
+  <si>
+    <t>Weekend Get Away (Stay-Cation)</t>
+  </si>
+  <si>
+    <t>My wife and I had a weekend get away (stay cation) using category 5 free night certs.The hotel is very modern and located in downtown Dallas. It's also connected to The Residence Inn, right next door.Room was very sleek/modern. Nice rainfall shower.Staff was very friendly and bartender served great drinks. Several restaurants, nigh clubs and attractions in walking distance. Cons - Valet parking (little high) breakfast is also pricey and didn't offer a variety. Ended up walking over to Residence Inn and used my $10 vouchers for breakfast. Perks of being a Platinum member. Overall I would recommend the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>My wife and I had a weekend get away (stay cation) using category 5 free night certs.The hotel is very modern and located in downtown Dallas. It's also connected to The Residence Inn, right next door.Room was very sleek/modern. Nice rainfall shower.Staff was very friendly and bartender served great drinks. Several restaurants, nigh clubs and attractions in walking distance. Cons - Valet parking (little high) breakfast is also pricey and didn't offer a variety. Ended up walking over to Residence Inn and used my $10 vouchers for breakfast. Perks of being a Platinum member. Overall I would recommend the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r597185393-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>597185393</t>
+  </si>
+  <si>
+    <t>07/17/2018</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>John B at the front desk is my favorite front man and was once suited by LaBron James - no joke. Lovely breakfast and friendly bar staff especially Chris and Pam. Woke up and thought i was in Europe with the styling and close to many great downtown restaurants. Recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>ACHotelDallas, Public Relations Manager at AC Hotel by Marriott Dallas Downtown, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>John B at the front desk is my favorite front man and was once suited by LaBron James - no joke. Lovely breakfast and friendly bar staff especially Chris and Pam. Woke up and thought i was in Europe with the styling and close to many great downtown restaurants. Recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r596827773-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>596827773</t>
+  </si>
+  <si>
+    <t>07/16/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great stay, friendly staff and good location </t>
+  </si>
+  <si>
+    <t>Overall stay was really nice. Great location and close to everything downtown.Room was nice and modern. The hotel is very new and seems very clean.Buffet Breakfast was also a great selection for the price of $15USD. Would definitely stay here again when back in dallas.MoreShow less</t>
+  </si>
+  <si>
+    <t>Overall stay was really nice. Great location and close to everything downtown.Room was nice and modern. The hotel is very new and seems very clean.Buffet Breakfast was also a great selection for the price of $15USD. Would definitely stay here again when back in dallas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r596687056-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>596687056</t>
+  </si>
+  <si>
+    <t>Overall it wasn't bad, but there are several better Marriott properties in or around downtown Dallas.</t>
+  </si>
+  <si>
+    <t>I don't like hotel valet parking, especially for $32 per night. I think $20 is reasonable, considering we've already paid for a room. Beautiful lobby/restaurant area. Restaurant food wasn't bad, just wish there was more variety. Just about everything is based in eggs. Great if you love eggs. If you don't like eggs you're limited to honeydew, a slice of turkey, stale bread or yogurt. Overall, the hotel had a very good vibe. Would stay here again if the parking were more reasonable. There are several Marriott properties within a couple of miles of downtown that do not charge for parking. Will likely stay at those instead next time. Overall the hotel is beautiful and clean. You are downtown, so you will hear sirens. Not the fault of the hotel, but something to keep in mind if you book. The staff was excellent and very friendly. Bed was comfortable. Overall, it's a good hotel, it just wasn't a perfect fit for me. Your mileage may vary.MoreShow less</t>
+  </si>
+  <si>
+    <t>I don't like hotel valet parking, especially for $32 per night. I think $20 is reasonable, considering we've already paid for a room. Beautiful lobby/restaurant area. Restaurant food wasn't bad, just wish there was more variety. Just about everything is based in eggs. Great if you love eggs. If you don't like eggs you're limited to honeydew, a slice of turkey, stale bread or yogurt. Overall, the hotel had a very good vibe. Would stay here again if the parking were more reasonable. There are several Marriott properties within a couple of miles of downtown that do not charge for parking. Will likely stay at those instead next time. Overall the hotel is beautiful and clean. You are downtown, so you will hear sirens. Not the fault of the hotel, but something to keep in mind if you book. The staff was excellent and very friendly. Bed was comfortable. Overall, it's a good hotel, it just wasn't a perfect fit for me. Your mileage may vary.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r596669992-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>596669992</t>
+  </si>
+  <si>
+    <t>Great new hotel</t>
+  </si>
+  <si>
+    <t>I stayed there for work and thoroughly enjoyed the room, location and experience. The renovations were very well done and the rooms were a great size. Breakfast was a lovely buffet (with buffet and ala carte included for $16) and the bar was fun that evening (with great live music!). Will definitely stay again!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed there for work and thoroughly enjoyed the room, location and experience. The renovations were very well done and the rooms were a great size. Breakfast was a lovely buffet (with buffet and ala carte included for $16) and the bar was fun that evening (with great live music!). Will definitely stay again!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r596409404-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>596409404</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t>Wonderful stay!</t>
+  </si>
+  <si>
+    <t>Loved this hotel! Very clean and modern. Valet was fast and friendly. Front desk professional and helpful, especially Mr. Liu! Breakfast was good, staff very nice and took good care of us. Awesome location, very centrally located.Would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Loved this hotel! Very clean and modern. Valet was fast and friendly. Front desk professional and helpful, especially Mr. Liu! Breakfast was good, staff very nice and took good care of us. Awesome location, very centrally located.Would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r595893614-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>595893614</t>
+  </si>
+  <si>
+    <t>07/13/2018</t>
+  </si>
+  <si>
+    <t>Business Trip for a week</t>
+  </si>
+  <si>
+    <t>The AC Hotel by Marriott is an elegant, clean, luxurious hotel for a week's stay in Downtown Dallas.  While the surrounding area isn't great, I felt more than comfortable hanging at the hotel bar listening to live music on Thursdays, or lounging by the couches during my lunch hour.  Service is quick to fix any issue and the hotel employees are genuinely nice and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>The AC Hotel by Marriott is an elegant, clean, luxurious hotel for a week's stay in Downtown Dallas.  While the surrounding area isn't great, I felt more than comfortable hanging at the hotel bar listening to live music on Thursdays, or lounging by the couches during my lunch hour.  Service is quick to fix any issue and the hotel employees are genuinely nice and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r595709326-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>595709326</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>Clean, contemporary, new hotel in great location!</t>
+  </si>
+  <si>
+    <t>This downtown based hotel is amazing! Location is great and Customer service superb (thanks John B at front desk! You were great!). Love the decor and everything about it. Great value too! You’re getting high end hotel quality for mid tier price. Enjoy it before they get too booked!MoreShow less</t>
+  </si>
+  <si>
+    <t>This downtown based hotel is amazing! Location is great and Customer service superb (thanks John B at front desk! You were great!). Love the decor and everything about it. Great value too! You’re getting high end hotel quality for mid tier price. Enjoy it before they get too booked!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r595686305-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>595686305</t>
+  </si>
+  <si>
+    <t>Loved My Stay at the AC</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed at the AC for a cheer competition and had an excellent stay. They were super accommodating and made things really easy with our early wake up calls. They hotel is beautiful and has a really cool vibe. The staff was great at reception and super helpful with the morning breakfast. It was so nice to be close to the convention center and have such a wonderful place to stay when we got back.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed at the AC for a cheer competition and had an excellent stay. They were super accommodating and made things really easy with our early wake up calls. They hotel is beautiful and has a really cool vibe. The staff was great at reception and super helpful with the morning breakfast. It was so nice to be close to the convention center and have such a wonderful place to stay when we got back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r595554059-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>595554059</t>
+  </si>
+  <si>
+    <t>Awesome Hotel</t>
+  </si>
+  <si>
+    <t>The hotel is beautiful. The valet was amazing and the front desk staff was exceptionally professional and courteous. I will be returning soon as we'll as referring this hotel to all of my friends and family.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is beautiful. The valet was amazing and the front desk staff was exceptionally professional and courteous. I will be returning soon as we'll as referring this hotel to all of my friends and family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r589192534-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>589192534</t>
+  </si>
+  <si>
+    <t>06/20/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>This seems to be a new product from Marriott.  Stayed at an AC in Chaepl Hill a few weeks ago and liked it, so,went with this one.  It was very similar.
+Nice large room, comfortable bed, quiet despite construction outside the window.  Modern Scandinavian motif.  Great location downtown.
+A few things I didn't like.  Pillows too soft.  All of them.  Like feather pillows.  Old guys like me need a firm pillow to keep out necks straight.  Only one drawer to put clothing away.  Only one person working the front desk.  Had to wait awhile,to check in while the clerk went over all the hotel,details with the couple in front of me.  And she did it slowly.  every time I walked by the front desk there was only one person.  Would have liked a faster check in.
+Check in parking.  All space in front of the hotel was marked for valet use.  So no place to park while you checked in.  And it's a busy street.  Difficult to be dropped off and picked up.  The valet guys were friendly and shared, but a timid person would still be driving around looking for a place to park.  We didn't use the valet parking, but the guys ran to get your car...even in 95 degree heat.
+Hotel,seems to share arrival with Hampton, and Renaissance hotels.  A bit confusing.  Elevator was unusual.  Enter floor on a keypad outside the hotel entrance, then once inside...This seems to be a new product from Marriott.  Stayed at an AC in Chaepl Hill a few weeks ago and liked it, so,went with this one.  It was very similar.Nice large room, comfortable bed, quiet despite construction outside the window.  Modern Scandinavian motif.  Great location downtown.A few things I didn't like.  Pillows too soft.  All of them.  Like feather pillows.  Old guys like me need a firm pillow to keep out necks straight.  Only one drawer to put clothing away.  Only one person working the front desk.  Had to wait awhile,to check in while the clerk went over all the hotel,details with the couple in front of me.  And she did it slowly.  every time I walked by the front desk there was only one person.  Would have liked a faster check in.Check in parking.  All space in front of the hotel was marked for valet use.  So no place to park while you checked in.  And it's a busy street.  Difficult to be dropped off and picked up.  The valet guys were friendly and shared, but a timid person would still be driving around looking for a place to park.  We didn't use the valet parking, but the guys ran to get your car...even in 95 degree heat.Hotel,seems to share arrival with Hampton, and Renaissance hotels.  A bit confusing.  Elevator was unusual.  Enter floor on a keypad outside the hotel entrance, then once inside there is nothing to press. You have to put your fate in the hands of the elevator.  A lot of uncertainty the first time.  Desk should have explained.Bathroom has a modern approach. Sliding glass door that doesn't lock, so you have to be on the honor system.  And there are no secrets about any noise in the bathroom.  Really nice shower with two shower heads...but your first time it's trial and error to figure out how this works.Despite my lengthy ramble about some negatives, it's a very nice and modern hotel.  And if the price is right, again, I would return.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>ACHotelDallas, Manager at AC Hotel by Marriott Dallas Downtown, responded to this reviewResponded June 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2018</t>
+  </si>
+  <si>
+    <t>This seems to be a new product from Marriott.  Stayed at an AC in Chaepl Hill a few weeks ago and liked it, so,went with this one.  It was very similar.
+Nice large room, comfortable bed, quiet despite construction outside the window.  Modern Scandinavian motif.  Great location downtown.
+A few things I didn't like.  Pillows too soft.  All of them.  Like feather pillows.  Old guys like me need a firm pillow to keep out necks straight.  Only one drawer to put clothing away.  Only one person working the front desk.  Had to wait awhile,to check in while the clerk went over all the hotel,details with the couple in front of me.  And she did it slowly.  every time I walked by the front desk there was only one person.  Would have liked a faster check in.
+Check in parking.  All space in front of the hotel was marked for valet use.  So no place to park while you checked in.  And it's a busy street.  Difficult to be dropped off and picked up.  The valet guys were friendly and shared, but a timid person would still be driving around looking for a place to park.  We didn't use the valet parking, but the guys ran to get your car...even in 95 degree heat.
+Hotel,seems to share arrival with Hampton, and Renaissance hotels.  A bit confusing.  Elevator was unusual.  Enter floor on a keypad outside the hotel entrance, then once inside...This seems to be a new product from Marriott.  Stayed at an AC in Chaepl Hill a few weeks ago and liked it, so,went with this one.  It was very similar.Nice large room, comfortable bed, quiet despite construction outside the window.  Modern Scandinavian motif.  Great location downtown.A few things I didn't like.  Pillows too soft.  All of them.  Like feather pillows.  Old guys like me need a firm pillow to keep out necks straight.  Only one drawer to put clothing away.  Only one person working the front desk.  Had to wait awhile,to check in while the clerk went over all the hotel,details with the couple in front of me.  And she did it slowly.  every time I walked by the front desk there was only one person.  Would have liked a faster check in.Check in parking.  All space in front of the hotel was marked for valet use.  So no place to park while you checked in.  And it's a busy street.  Difficult to be dropped off and picked up.  The valet guys were friendly and shared, but a timid person would still be driving around looking for a place to park.  We didn't use the valet parking, but the guys ran to get your car...even in 95 degree heat.Hotel,seems to share arrival with Hampton, and Renaissance hotels.  A bit confusing.  Elevator was unusual.  Enter floor on a keypad outside the hotel entrance, then once inside there is nothing to press. You have to put your fate in the hands of the elevator.  A lot of uncertainty the first time.  Desk should have explained.Bathroom has a modern approach. Sliding glass door that doesn't lock, so you have to be on the honor system.  And there are no secrets about any noise in the bathroom.  Really nice shower with two shower heads...but your first time it's trial and error to figure out how this works.Despite my lengthy ramble about some negatives, it's a very nice and modern hotel.  And if the price is right, again, I would return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r588579376-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>588579376</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Very nice room</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here while we attended a conference at the convention center. The room was really nice. The bed was comfortable. The shower was excellent. The staff were nice. The worst part is the parking issue. They work with another business to offer valet parking which is $32/day plus tips. We chose to park our vehicle in a city lot that was only $12/day and a little more than a block away.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r585451437-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>585451437</t>
+  </si>
+  <si>
+    <t>06/05/2018</t>
+  </si>
+  <si>
+    <t>Centrally located.</t>
+  </si>
+  <si>
+    <t>We were visiting Dallas for a weekend from Austin. The hotel is in walking distance to most of the tourist places in downtown. There are many restaurants nearby. The room had two king beds and we were four. Room size is also comfortable. I did not like the glass bathroom door with no lock which makes it akward when staying with adult children.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>ACHotelDallas, Manager at AC Hotel by Marriott Dallas Downtown, responded to this reviewResponded June 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2018</t>
+  </si>
+  <si>
+    <t>We were visiting Dallas for a weekend from Austin. The hotel is in walking distance to most of the tourist places in downtown. There are many restaurants nearby. The room had two king beds and we were four. Room size is also comfortable. I did not like the glass bathroom door with no lock which makes it akward when staying with adult children.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r584914479-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>584914479</t>
+  </si>
+  <si>
+    <t>06/03/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekend Visit </t>
+  </si>
+  <si>
+    <t>Every part of my visit was amazing. The valet sends you a text message with your valet ticket....which is great for someone like me who loses those!  I did mobile check in my keys were ready when I arrived and the front desk offered a suggestion for dinner. Very nice staff. Rooms were very clean. Hotel is located in downtown so it’s expected to have some street noise but I didn’t hear anything. Lots of food and things to see and do within walking distance. Great place to stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>ACHotelDallas, Manager at AC Hotel by Marriott Dallas Downtown, responded to this reviewResponded June 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2018</t>
+  </si>
+  <si>
+    <t>Every part of my visit was amazing. The valet sends you a text message with your valet ticket....which is great for someone like me who loses those!  I did mobile check in my keys were ready when I arrived and the front desk offered a suggestion for dinner. Very nice staff. Rooms were very clean. Hotel is located in downtown so it’s expected to have some street noise but I didn’t hear anything. Lots of food and things to see and do within walking distance. Great place to stay!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r580861023-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
-    <t>55711</t>
-  </si>
-  <si>
-    <t>12204513</t>
-  </si>
-  <si>
     <t>580861023</t>
   </si>
   <si>
@@ -171,16 +548,16 @@
     <t>Construction site under my window</t>
   </si>
   <si>
-    <t>Booked ahead and asked for a quiet room. Instead have a full blown construction site under my window. Cement mixer, trucks backing up, guys yelling,etc. It’s so loud that I can’t work or rest in the room. And they have music blasting through all the common lounge areas,so moving there isn’t a great option. Not a business friendly hotel, despite the convenient location.</t>
-  </si>
-  <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>carriej11</t>
+    <t>Booked ahead and asked for a quiet room. Instead have a full blown construction site under my window. Cement mixer, trucks backing up, guys yelling,etc. It’s so loud that I can’t work or rest in the room. And they have music blasting through all the common lounge areas,so moving there isn’t a great option. Not a business friendly hotel, despite the convenient location.MoreShow less</t>
+  </si>
+  <si>
+    <t>ACHotelDallas, Manager at AC Hotel by Marriott Dallas Downtown, responded to this reviewResponded June 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2018</t>
+  </si>
+  <si>
+    <t>Booked ahead and asked for a quiet room. Instead have a full blown construction site under my window. Cement mixer, trucks backing up, guys yelling,etc. It’s so loud that I can’t work or rest in the room. And they have music blasting through all the common lounge areas,so moving there isn’t a great option. Not a business friendly hotel, despite the convenient location.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r578111387-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
@@ -195,10 +572,10 @@
     <t>Great stay!</t>
   </si>
   <si>
-    <t>I loved the front desk. I loved the lobby/bar area. I loved that the drinks weren't through-the-roof expensive. I loved my room. I loved my free market item. I loved the beds. I loved the towels and the shower and shampoo in the bathrooms.  I loved that Neiman Marcus was right across the street. :-)I stayed here for a work event and was really pleased with my experience.  The front desk staff is WAY above par. I would stay here again!</t>
-  </si>
-  <si>
-    <t>Nicole E</t>
+    <t>I loved the front desk. I loved the lobby/bar area. I loved that the drinks weren't through-the-roof expensive. I loved my room. I loved my free market item. I loved the beds. I loved the towels and the shower and shampoo in the bathrooms.  I loved that Neiman Marcus was right across the street. :-)I stayed here for a work event and was really pleased with my experience.  The front desk staff is WAY above par. I would stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>I loved the front desk. I loved the lobby/bar area. I loved that the drinks weren't through-the-roof expensive. I loved my room. I loved my free market item. I loved the beds. I loved the towels and the shower and shampoo in the bathrooms.  I loved that Neiman Marcus was right across the street. :-)I stayed here for a work event and was really pleased with my experience.  The front desk staff is WAY above par. I would stay here again!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r571152827-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
@@ -222,9 +599,6 @@
     <t>This is a very nice, unique hotel. Beds are comfy, rooms are spacious enough, but not huge. Bathrooms are large; but the bathroom has a sliding glass door that provides no noise reduction and you can see a silhouette through it, but no details. So be careful who you share a room with! Lobby is nice, and the breakfast is really tasty - but $15 a person. The elevators can be kind of tricky - they are “smart” and you have to enter your floor before you get on or you are just kind of along for the ride! Overall, we liked this hotel and were treated very well by the courteous front desk staff. Oh, you basically have to do valet parking because there is no parking garage and there’s surface lots close by, but we were worried about security in those.More</t>
   </si>
   <si>
-    <t>Keeley G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r571087302-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -234,16 +608,13 @@
     <t>Beautiful and Modern</t>
   </si>
   <si>
-    <t>I live downtown and had a week off, I stayed at the AC Hotel and enjoyed my night there. Bed was comfy, got all my favorite channels on the tv, felt like a princess.Great hotel!!!! Thank you so much!</t>
+    <t>I live downtown and had a week off, I stayed at the AC Hotel and enjoyed my night there. Bed was comfy, got all my favorite channels on the tv, felt like a princess.Great hotel!!!! Thank you so much!MoreShow less</t>
   </si>
   <si>
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>kinley329</t>
+    <t>I live downtown and had a week off, I stayed at the AC Hotel and enjoyed my night there. Bed was comfy, got all my favorite channels on the tv, felt like a princess.Great hotel!!!! Thank you so much!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r563035671-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
@@ -261,9 +632,6 @@
     <t>I was in Dallas this weekend with Cheer Athletics for one of the largest cheerleading events in the World. Its a very stressful weekend so wanted to stay somewhere close to take a little stress off the weekend. They were so accomadating, clean, and easy to get to and from room. One of my favorite aspects was the elevators. You select what floor youre going to from outside the elevator and that way it can accomadate the best "car" to take so you are not in an elevator going up and down with any button being pressed inside the elevator. Loved it!!MoreShow less</t>
   </si>
   <si>
-    <t>February 2018</t>
-  </si>
-  <si>
     <t>AC Hotel D, Public Relations Manager at AC Hotel by Marriott Dallas Downtown, responded to this reviewResponded February 27, 2018</t>
   </si>
   <si>
@@ -273,9 +641,6 @@
     <t>I was in Dallas this weekend with Cheer Athletics for one of the largest cheerleading events in the World. Its a very stressful weekend so wanted to stay somewhere close to take a little stress off the weekend. They were so accomadating, clean, and easy to get to and from room. One of my favorite aspects was the elevators. You select what floor youre going to from outside the elevator and that way it can accomadate the best "car" to take so you are not in an elevator going up and down with any button being pressed inside the elevator. Loved it!!More</t>
   </si>
   <si>
-    <t>50pgeorge</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r562702835-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -291,15 +656,9 @@
     <t>We had a short weekend to hang out in downtown and ended up the same weekend as there was a very large cheer competition in town.  Surprisingly our room was very quiet.  It was comfortable, modern, and my wife loved the shower complete with rain showerhead.  Gym was above average.  Lobby was less opulent than others in this price range, but nice.  We would stay here again.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>We had a short weekend to hang out in downtown and ended up the same weekend as there was a very large cheer competition in town.  Surprisingly our room was very quiet.  It was comfortable, modern, and my wife loved the shower complete with rain showerhead.  Gym was above average.  Lobby was less opulent than others in this price range, but nice.  We would stay here again.More</t>
   </si>
   <si>
-    <t>keblackwell</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r561511508-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -324,9 +683,6 @@
     <t>My husband and I stayed here on a weekend trip to Dallas and loved this hotel! Since he is a Platinum Marriott member we were upgraded to a corner King room on the sixth floor. This hotel is brand new and the room was very spacious and clean. The bed and pillows were super comfortable for a category 5 Marriott hotel. I loved that there were laminate floors throughout the room instead of carpet, it makes the room seem so much cleaner. The shower was amazing with both a rainfall shower head and traditional!  Others have complained about the noise at this hotel but the music playing in the lobby etc was barely noticeable during our stay so perhaps they have heard the complaints and turned it down. There is no dresser in the room, just a very small open closet, but that didn't bother us. They gave us a $10 coupon to use at breakfast or for coffee since my husband is a Platinum member and there is no lounge. We will definitely stay here again when we come back to Dallas.More</t>
   </si>
   <si>
-    <t>guymarcroy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r560735846-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -348,9 +704,6 @@
     <t>Took a weekend trip to Dallas to meet up with some friends.  Booked the AC Hotel based on prior experience with AC Hotels in Europe.  Hotel appears to be new, lobby was clean and nicely furnished, and valet service was excellent (text to request car).  Warm greeting from front desk personnel, quick check-in process, and nice corner room.  Elevator system is a bit strange and required a couple of re-boots while there, but ultimately worked well.  Room was large, clean and nicely appointed, albeit sterile.  Everything worked well and the housekeeping staff were friendly and helpful.  Although the facility is nice, Diana in the breakfast area is the reason to return. She was so helpful and friendly, a great conversationalist, and is a true asset to the hotel.  Thank you, Diana, for making our stay special.More</t>
   </si>
   <si>
-    <t>Louis D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r555729139-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -372,9 +725,6 @@
     <t>This hotel is definitely a very unique place. It's only been open 3 months. When I arrived  I asked for a upgrade, I was put on the 10th floor corner room with great view of the city.  Everything about this place is unique, I've  posted plenty of pictures.  If you have questions please feel free to contact. In the mean time enjoy the photos. More</t>
   </si>
   <si>
-    <t>RAHTrip</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r555156939-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -393,9 +743,6 @@
     <t>My wife and I stayed here off a reward from the fall mega bonus challenge. When you earn these award stays they max out at category five hotels. Most of the time that caps you off at a courtyard level property. This hotel was much nicer than that. I’ll use my reward stays here again. It is a bit loud from downtown traffic, but earplugs and sound machine app took care of that. I recommend this property nonetheless.More</t>
   </si>
   <si>
-    <t>Lori D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r554833969-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -414,9 +761,6 @@
     <t>I disagree with other reviews that it was noisy.  I was on the 6th and it was very quiet.  The room is modern and minimalist but the bed is comfortable.  The gym is very nice but shared with their sister Hotel next door.  For the following reasons I can’t give them a higher rating.  My room was not cleaned from the previous people and though it was cleaned, the shampoos and body soap were not changed out.  I stayed two nights and they did not replenish the bottle water or clean the sink.  Also thought there is coffee in the room they do NOT offer free coffee in the lobby in the morning.  They have a bar in the lobby with only a limited food offering, so if you hungry don’t eat here.  The staff was very friendly and had no complaints with any of the staff I interacted with.More</t>
   </si>
   <si>
-    <t>JeepNYC</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r554298274-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -433,9 +777,6 @@
   </si>
   <si>
     <t>The Dallas AC is brand spanking new, with pop music blaring out as you alight from your cab, and a check in adjacent to the trendy lounge and bar area. Hey, I'm cool, we're cool, everyone's cool. Yes, Dallas appears to be a conference goers dream, but this is Dallas, baby.And then you go to your room. It's tiny. I've seen smaller rooms... I think. The bathroom has a sliding glass door, making it inappropriate for everyone but [a] single people, perhaps like those attending a conference, and [b] nope, there isn't anyone else. My wife and I have been married for 15 years, but I've tried to protect her from some things (UNTIL NOW). But it is VERY clean and there's nowhere to unpack your clothes but a long bench and a few hangers, which makes some sort of sense I suppose.Fortunately, it's quiet and comfortable, right? NOPE. This hotel has some of the worst soundproofing I've experienced. I heard what my next door neighbors discussing what to have for dinner, I heard upstairs doing what I presume is the flamenco, and I heard people in the street below.  Oh, and my wife says the bed was really uncomfortable.More</t>
-  </si>
-  <si>
-    <t>Kent M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r553797501-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
@@ -453,16 +794,13 @@
     <t>This is supposed to be a business traveler hotel, and yet the music in the lobby was as loud as a nightclub.  We could not even hold a conversation in the lobby without walking outside.  I asked the front desk to turn it down, and they said it was "pre-programmed".  Seriously?  The volume of the music in the lobby is not controllable by the staff?  Talk about not trusting employees.  Remind me never to apply to work for Marriott.
 While the rooms were clean for sure, the room itself can only be described as stark.  The walls were darker brown, fake paneling, and there were NO wall decorations; just a big screen TV.  There was also no dresser/chesterdrawers; only a long table.  The room felt more like a prison cell than a hotel room.  The same goes for the hallways, elevator, and front lobby.  I usually make fun of interior decorators for worrying about things I consider trivial, but this hotel showed me the value of a good one over a bad one.  I had no desire to "hang around" the hotel at all, either in the lobby or in the room.  The decor was "depressing" and "uninviting".
 Like another reviewer, I thought the walls were thin, and I had to turn on Pandora White Noise channel to sleep.
-The modern bathrooms were also dark.  I liked the modern bathroom look, but the lighting for shaving was terrible.  I do...This is supposed to be a business traveler hotel, and yet the music in the lobby was as loud as a nightclub.  We could not even hold a conversation in the lobby without walking outside.  I asked the front desk to turn it down, and they said it was "pre-programmed".  Seriously?  The volume of the music in the lobby is not controllable by the staff?  Talk about not trusting employees.  Remind me never to apply to work for Marriott.While the rooms were clean for sure, the room itself can only be described as stark.  The walls were darker brown, fake paneling, and there were NO wall decorations; just a big screen TV.  There was also no dresser/chesterdrawers; only a long table.  The room felt more like a prison cell than a hotel room.  The same goes for the hallways, elevator, and front lobby.  I usually make fun of interior decorators for worrying about things I consider trivial, but this hotel showed me the value of a good one over a bad one.  I had no desire to "hang around" the hotel at all, either in the lobby or in the room.  The decor was "depressing" and "uninviting".Like another reviewer, I thought the walls were thin, and I had to turn on Pandora White Noise channel to sleep.The modern bathrooms were also dark.  I liked the modern bathroom look, but the lighting for shaving was terrible.  I do like the low flush toilets to save water, but the toilet itself was tiny.  I'm a very tall man, and the height and size of the toilet made it difficult to use.I was excited when I saw the double shower head, and I love stand up showers with doors instead of curtains.  I was disappointed that I couldn't run both shower heads at the same time, but overall I did like the shower.  One minor annoyance; there was a large metal cover over the drain, presumably to hide the drain from view.  Aesthetically, I like the cover, but because it was metal AND directly under the shower head, water dripped on it and made a sound that reminded me of metal stove pans clanging together.The staff was good; no complaints there.The breakfast was different.  I tried it one day, and I am NOT a picky eater.  I tried everything on the buffet (except cereal and pastries), and she brought me a special from the kitchen.  While most of it was good, it was so different from a traditional American breakfast that I had no desire to go again.  Let's face it, most Americans like our eggs and bacon/sausage, and my only egg options were cold hard boiled, or a single fried...MoreShow less</t>
+The modern bathrooms were also dark.  I liked the modern bathroom look, but the lighting for shaving was terrible.  I do...This is supposed to be a business traveler hotel, and yet the music in the lobby was as loud as a nightclub.  We could not even hold a conversation in the lobby without walking outside.  I asked the front desk to turn it down, and they said it was "pre-programmed".  Seriously?  The volume of the music in the lobby is not controllable by the staff?  Talk about not trusting employees.  Remind me never to apply to work for Marriott.While the rooms were clean for sure, the room itself can only be described as stark.  The walls were darker brown, fake paneling, and there were NO wall decorations; just a big screen TV.  There was also no dresser/chesterdrawers; only a long table.  The room felt more like a prison cell than a hotel room.  The same goes for the hallways, elevator, and front lobby.  I usually make fun of interior decorators for worrying about things I consider trivial, but this hotel showed me the value of a good one over a bad one.  I had no desire to "hang around" the hotel at all, either in the lobby or in the room.  The decor was "depressing" and "uninviting".Like another reviewer, I thought the walls were thin, and I had to turn on Pandora White Noise channel to sleep.The modern bathrooms were also dark.  I liked the modern bathroom look, but the lighting for shaving was terrible.  I do like the low flush toilets to save water, but the toilet itself was tiny.  I'm a very tall man, and the height and size of the toilet made it difficult to use.I was excited when I saw the double shower head, and I love stand up showers with doors instead of curtains.  I was disappointed that I couldn't run both shower heads at the same time, but overall I did like the shower.  One minor annoyance; there was a large metal cover over the drain, presumably to hide the drain from view.  Aesthetically, I like the cover, but because it was metal AND directly under the shower head, water dripped on it and made a sound that reminded me of metal stove pans clanging together.The staff was good; no complaints there.The breakfast was different.  I tried it one day, and I am NOT a picky eater.  I tried everything on the buffet (except cereal and pastries), and she brought me a special from the kitchen.  While most of it was good, it was so different from a traditional American breakfast that I had no desire to go again.  Let's face it, most Americans like our eggs and bacon/sausage, and my only egg options were cold hard boiled, or a single fried egg on prosciutto with aioli sauce.  There was also no oatmeal.  Not surprisingly, I was the only person eating the breakfast for the 40 minutes I was sitting there.  I like the uniqueness; but you need to offer traditional items as well.  It was also pricey given the limited options ($16).No room service?  This is supposed to be a high end hotel for busy business travelers that want to get back to the hotel and crash.  We can't do that if we have to walk outside every single night to get food.  Especially since its a downtown hotel and hard to get delivery.  And the little "store" next to the lobby desk was useless.  I stayed at a Marriott in Durham, NC last summer, and the lobby store had all kinds of options, even some foods to microwave.  The store at the AC was essentially a high priced vending machine.The elevators ... seriously?  What is the value of elevators with no buttons inside?  Once you got used to the lobby control panel, it was okay if I was going up by myself, but if you had more than one person entering, trying to enter all the floors and get assigned the same elevator was a pain.  Get rid of that control system; it solves no problems and causes others.Five of us paid $220/night for 5 nights, and we definitely will NOT be staying here again.MoreShow less</t>
   </si>
   <si>
     <t>This is supposed to be a business traveler hotel, and yet the music in the lobby was as loud as a nightclub.  We could not even hold a conversation in the lobby without walking outside.  I asked the front desk to turn it down, and they said it was "pre-programmed".  Seriously?  The volume of the music in the lobby is not controllable by the staff?  Talk about not trusting employees.  Remind me never to apply to work for Marriott.
 While the rooms were clean for sure, the room itself can only be described as stark.  The walls were darker brown, fake paneling, and there were NO wall decorations; just a big screen TV.  There was also no dresser/chesterdrawers; only a long table.  The room felt more like a prison cell than a hotel room.  The same goes for the hallways, elevator, and front lobby.  I usually make fun of interior decorators for worrying about things I consider trivial, but this hotel showed me the value of a good one over a bad one.  I had no desire to "hang around" the hotel at all, either in the lobby or in the room.  The decor was "depressing" and "uninviting".
 Like another reviewer, I thought the walls were thin, and I had to turn on Pandora White Noise channel to sleep.
-The modern bathrooms were also dark.  I liked the modern bathroom look, but the lighting for shaving was terrible.  I do...This is supposed to be a business traveler hotel, and yet the music in the lobby was as loud as a nightclub.  We could not even hold a conversation in the lobby without walking outside.  I asked the front desk to turn it down, and they said it was "pre-programmed".  Seriously?  The volume of the music in the lobby is not controllable by the staff?  Talk about not trusting employees.  Remind me never to apply to work for Marriott.While the rooms were clean for sure, the room itself can only be described as stark.  The walls were darker brown, fake paneling, and there were NO wall decorations; just a big screen TV.  There was also no dresser/chesterdrawers; only a long table.  The room felt more like a prison cell than a hotel room.  The same goes for the hallways, elevator, and front lobby.  I usually make fun of interior decorators for worrying about things I consider trivial, but this hotel showed me the value of a good one over a bad one.  I had no desire to "hang around" the hotel at all, either in the lobby or in the room.  The decor was "depressing" and "uninviting".Like another reviewer, I thought the walls were thin, and I had to turn on Pandora White Noise channel to sleep.The modern bathrooms were also dark.  I liked the modern bathroom look, but the lighting for shaving was terrible.  I do like the low flush toilets to save water, but the toilet itself was tiny.  I'm a very tall man, and the height and size of the toilet made it difficult to use.I was excited when I saw the double shower head, and I love stand up showers with doors instead of curtains.  I was disappointed that I couldn't run both shower heads at the same time, but overall I did like the shower.  One minor annoyance; there was a large metal cover over the drain, presumably to hide the drain from view.  Aesthetically, I like the cover, but because it was metal AND directly under the shower head, water dripped on it and made a sound that reminded me of metal stove pans clanging together.The staff was good; no complaints there.The breakfast was different.  I tried it one day, and I am NOT a picky eater.  I tried everything on the buffet (except cereal and pastries), and she brought me a special from the kitchen.  While most of it was good, it was so different from a traditional American breakfast that I had no desire to go again.  Let's face it, most Americans like our eggs and bacon/sausage, and my only egg options were cold hard boiled, or a single fried...More</t>
-  </si>
-  <si>
-    <t>Greg H</t>
+The modern bathrooms were also dark.  I liked the modern bathroom look, but the lighting for shaving was terrible.  I do...This is supposed to be a business traveler hotel, and yet the music in the lobby was as loud as a nightclub.  We could not even hold a conversation in the lobby without walking outside.  I asked the front desk to turn it down, and they said it was "pre-programmed".  Seriously?  The volume of the music in the lobby is not controllable by the staff?  Talk about not trusting employees.  Remind me never to apply to work for Marriott.While the rooms were clean for sure, the room itself can only be described as stark.  The walls were darker brown, fake paneling, and there were NO wall decorations; just a big screen TV.  There was also no dresser/chesterdrawers; only a long table.  The room felt more like a prison cell than a hotel room.  The same goes for the hallways, elevator, and front lobby.  I usually make fun of interior decorators for worrying about things I consider trivial, but this hotel showed me the value of a good one over a bad one.  I had no desire to "hang around" the hotel at all, either in the lobby or in the room.  The decor was "depressing" and "uninviting".Like another reviewer, I thought the walls were thin, and I had to turn on Pandora White Noise channel to sleep.The modern bathrooms were also dark.  I liked the modern bathroom look, but the lighting for shaving was terrible.  I do like the low flush toilets to save water, but the toilet itself was tiny.  I'm a very tall man, and the height and size of the toilet made it difficult to use.I was excited when I saw the double shower head, and I love stand up showers with doors instead of curtains.  I was disappointed that I couldn't run both shower heads at the same time, but overall I did like the shower.  One minor annoyance; there was a large metal cover over the drain, presumably to hide the drain from view.  Aesthetically, I like the cover, but because it was metal AND directly under the shower head, water dripped on it and made a sound that reminded me of metal stove pans clanging together.The staff was good; no complaints there.The breakfast was different.  I tried it one day, and I am NOT a picky eater.  I tried everything on the buffet (except cereal and pastries), and she brought me a special from the kitchen.  While most of it was good, it was so different from a traditional American breakfast that I had no desire to go again.  Let's face it, most Americans like our eggs and bacon/sausage, and my only egg options were cold hard boiled, or a single fried egg on prosciutto with aioli sauce.  There was also no oatmeal.  Not surprisingly, I was the only person eating the breakfast for the 40 minutes I was sitting there.  I like the uniqueness; but you need to offer traditional items as well.  It was also pricey given the limited options ($16).No room service?  This is supposed to be a high end hotel for busy business travelers that want to get back to the hotel and crash.  We can't do that if we have to walk outside every single night to get food.  Especially since its a downtown hotel and hard to get delivery.  And the little "store" next to the lobby desk was useless.  I stayed at a Marriott in Durham, NC last summer, and the lobby store had all kinds of options, even some foods to microwave.  The store at the AC was essentially a high priced vending machine.The elevators ... seriously?  What is the value of elevators with no buttons inside?  Once you got used to the lobby control panel, it was okay if I was going up by myself, but if you had more than one person entering, trying to enter all the floors and get assigned the same elevator was a pain.  Get rid of that control system; it solves no problems and causes others.Five of us paid $220/night for 5 nights, and we definitely will NOT be staying here again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r553766257-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
@@ -486,9 +824,6 @@
 The staff is super friendly and can easily recommend to you nearby restaurants and things to see in downtown Dallas.  They seemed super knowledgeable about the surrounding...Stayed here for a quick business trip and was quite impressed.  Wifi was free without a password in the lobby and in the conference areas.  The lobby was quite stylish with a nice full-service bar that was open until 10:30pm (wish it closed a bit later). Just be aware that the music is REALLY loud as people have mentioned before.  It's great music, just makes it hard to have a conversation without really having to raise your voice. My room faced the front street so it had a nice view of the surrounding buildings, and most importantly, away from the noise of construction happening on buildings in the back.  SUGGESTION:  ask for a room that faces the front to avoid hearing construction early in the mornings.  A few of my colleagues were woken up from construction sounds quite early!The bathroom was super clean, no tub, but an elegant shower.  After spending 5 minutes trying to figure out the shower knobs, was a bit disappointed to realize that the water pressure wasn't high enough in the hotel to be able to fully use the overhead rain shower.  Seemed that the hot/cold wasn't getting enough pressure between the two -- so you either were freezing or scalding.  But the handheld shower worked just fine.The staff is super friendly and can easily recommend to you nearby restaurants and things to see in downtown Dallas.  They seemed super knowledgeable about the surrounding areas as well as some of the more unknown facets of the area.Great modern, clean hotel with just a few things to fix.  Would definitely recommend staying here again.More</t>
   </si>
   <si>
-    <t>A_Litle_Bit_OCD</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r553410573-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -507,9 +842,6 @@
     <t>This is the loudest hotel I have ever stayed in.  While I did get a room upgrade because of my Platinum Elite status, it doesn't make up for the rest.  Many of my coworkers staying there had the same complaint.The music in the elevator room, lobby (even around the front desk) and the bar made it difficult to have a conversation including the one with the clerk to check in.The biggest problem was the Single Pane windows in the hotel (I was on the 4th floor) did nothing to prevent the street noise from coming in.The room was cold and hard.  It may look cool in the brochure, but it is not nice to stay in.  The closet could only hold 2 shirts and two pairs of pants.  Square toilets?  Seriously,  unless you're spongebob, it's not comfortable.  Putting the shower controls on the opposite side of the shower is dumb.  With the high efficiency showerhead that flows 1.5 Gallons per minute and pipe that holds .4 gallons per 10 feet (1") going all around a shower that is 5X10, you make an adjustment and wait and wait for the results...If you are going to have hard floors everywhere, at least have some rugs.There were no convenient outlets to plug in a laptop.The free bottled water in the fridge was nice, but housekeeping never refilled it.The premium internet connection was 10Mbps.More</t>
   </si>
   <si>
-    <t>Joseph R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r551244069-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -528,9 +860,6 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t>Mariella I</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r544889703-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -546,9 +875,6 @@
     <t>This was my first boutique hotel experience for business. I am used to several amenities at the hotels I stay at, so this was a bit different. They don’t have room service and the dining options on site are limited, as well as some of their in-room amenities. That being said, my room was nice, walking distance to everything, good, safe area, and the service at the front desk and breakfast was really good. For the price I paid (about $230) I think it was a good value for the stay.</t>
   </si>
   <si>
-    <t>amitchella</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r541964422-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
   </si>
   <si>
@@ -568,9 +894,6 @@
   </si>
   <si>
     <t>I believe this was another brand and renovated as an AC recently. The look and feel of the hotel is very minimalist and clean (lobby, restaurant and rooms). I don't mean basic however. Even the elevators were of the current design of you typing in your floor on the touchpad and it taking you to that floor only. I mistakenly got onto an open elevator with someone only to learn that it was only going to a specific floor. Actually nice for security but a good thing to know in advance.I stayed here 1 night during a business trip. I found the rooms to be of good size and with the amenities you would expect (including a safe). A nice touch was the small refrigerator for water and glasses. Again the rooms felt very clean and new.Do note that the restaurant in the lobby serves tapas. If you are in need of a hearty meal (or desire room service), the staff will kindly guide you to other dining options in the immediate area that are open late.I would stay at this property again and found it of good value and very comfortable. It does have a boutique kind of feel even though it is a Marriott brand.More</t>
-  </si>
-  <si>
-    <t>Ken S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d12204513-r537983441-AC_Hotel_by_Marriott_Dallas_Downtown-Dallas_Texas.html</t>
@@ -1093,646 +1416,600 @@
       <c r="A2" t="n">
         <v>66242</v>
       </c>
-      <c r="B2" t="n">
-        <v>23213</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>66242</v>
       </c>
-      <c r="B3" t="n">
-        <v>79792</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
-      </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>66242</v>
       </c>
-      <c r="B4" t="n">
-        <v>10446</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
         <v>61</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>62</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>63</v>
       </c>
-      <c r="K4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" t="s">
-        <v>65</v>
-      </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>66242</v>
       </c>
-      <c r="B5" t="n">
-        <v>117561</v>
-      </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>69</v>
+      </c>
+      <c r="X5" t="s">
+        <v>70</v>
+      </c>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>66242</v>
       </c>
-      <c r="B6" t="n">
-        <v>117562</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
         <v>75</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>76</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" t="s">
-        <v>80</v>
-      </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="X6" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>66242</v>
       </c>
-      <c r="B7" t="n">
-        <v>117563</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="X7" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>66242</v>
       </c>
-      <c r="B8" t="n">
-        <v>117564</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="O8" t="s">
-        <v>91</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>4</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="X8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>66242</v>
       </c>
-      <c r="B9" t="n">
-        <v>117565</v>
-      </c>
-      <c r="C9" t="s">
-        <v>102</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="O9" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="X9" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>66242</v>
       </c>
-      <c r="B10" t="n">
-        <v>2644</v>
-      </c>
-      <c r="C10" t="s">
-        <v>110</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="O10" t="s">
-        <v>74</v>
-      </c>
-      <c r="P10" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="X10" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>66242</v>
       </c>
-      <c r="B11" t="n">
-        <v>117566</v>
-      </c>
-      <c r="C11" t="s">
-        <v>118</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="O11" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1744,60 +2021,56 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="X11" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Y11" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>66242</v>
       </c>
-      <c r="B12" t="n">
-        <v>36141</v>
-      </c>
-      <c r="C12" t="s">
-        <v>125</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="K12" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1809,549 +2082,1710 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="X12" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Y12" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>66242</v>
       </c>
-      <c r="B13" t="n">
-        <v>117567</v>
-      </c>
-      <c r="C13" t="s">
-        <v>132</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="K13" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="O13" t="s">
-        <v>91</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="X13" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Y13" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>66242</v>
       </c>
-      <c r="B14" t="n">
-        <v>14622</v>
-      </c>
-      <c r="C14" t="s">
-        <v>139</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="J14" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>90</v>
+      </c>
+      <c r="X14" t="s">
+        <v>91</v>
+      </c>
       <c r="Y14" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>66242</v>
       </c>
-      <c r="B15" t="n">
-        <v>15774</v>
-      </c>
-      <c r="C15" t="s">
-        <v>146</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="J15" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="K15" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="X15" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Y15" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>66242</v>
       </c>
-      <c r="B16" t="n">
-        <v>117568</v>
-      </c>
-      <c r="C16" t="s">
-        <v>152</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="J16" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="K16" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="L16" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>90</v>
+      </c>
+      <c r="X16" t="s">
+        <v>91</v>
+      </c>
       <c r="Y16" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>66242</v>
       </c>
-      <c r="B17" t="n">
-        <v>6580</v>
-      </c>
-      <c r="C17" t="s">
-        <v>159</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="J17" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="K17" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="L17" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="O17" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>145</v>
+      </c>
+      <c r="X17" t="s">
+        <v>146</v>
+      </c>
       <c r="Y17" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>66242</v>
       </c>
-      <c r="B18" t="n">
-        <v>117569</v>
-      </c>
-      <c r="C18" t="s">
-        <v>166</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="J18" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="K18" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="L18" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>66242</v>
       </c>
-      <c r="B19" t="n">
-        <v>117570</v>
-      </c>
-      <c r="C19" t="s">
-        <v>172</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="J19" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="K19" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="L19" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
+      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>159</v>
+      </c>
+      <c r="X19" t="s">
+        <v>160</v>
+      </c>
       <c r="Y19" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>66242</v>
       </c>
-      <c r="B20" t="n">
-        <v>20741</v>
-      </c>
-      <c r="C20" t="s">
-        <v>180</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="J20" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="K20" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="L20" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>186</v>
+        <v>83</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>167</v>
+      </c>
+      <c r="X20" t="s">
+        <v>168</v>
+      </c>
       <c r="Y20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>66242</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>171</v>
+      </c>
+      <c r="J21" t="s">
+        <v>172</v>
+      </c>
+      <c r="K21" t="s">
+        <v>173</v>
+      </c>
+      <c r="L21" t="s">
+        <v>174</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>158</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>175</v>
+      </c>
+      <c r="X21" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>66242</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>179</v>
+      </c>
+      <c r="J22" t="s">
+        <v>180</v>
+      </c>
+      <c r="K22" t="s">
+        <v>181</v>
+      </c>
+      <c r="L22" t="s">
+        <v>182</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>158</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>175</v>
+      </c>
+      <c r="X22" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>66242</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
         <v>185</v>
+      </c>
+      <c r="J23" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L23" t="s">
+        <v>188</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>189</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>175</v>
+      </c>
+      <c r="X23" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>66242</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>192</v>
+      </c>
+      <c r="J24" t="s">
+        <v>186</v>
+      </c>
+      <c r="K24" t="s">
+        <v>193</v>
+      </c>
+      <c r="L24" t="s">
+        <v>194</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>195</v>
+      </c>
+      <c r="O24" t="s">
+        <v>144</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>175</v>
+      </c>
+      <c r="X24" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>66242</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>197</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>198</v>
+      </c>
+      <c r="J25" t="s">
+        <v>199</v>
+      </c>
+      <c r="K25" t="s">
+        <v>200</v>
+      </c>
+      <c r="L25" t="s">
+        <v>201</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>131</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>202</v>
+      </c>
+      <c r="X25" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>66242</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>206</v>
+      </c>
+      <c r="J26" t="s">
+        <v>207</v>
+      </c>
+      <c r="K26" t="s">
+        <v>208</v>
+      </c>
+      <c r="L26" t="s">
+        <v>209</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>131</v>
+      </c>
+      <c r="O26" t="s">
+        <v>58</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>202</v>
+      </c>
+      <c r="X26" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>66242</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>211</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>212</v>
+      </c>
+      <c r="J27" t="s">
+        <v>213</v>
+      </c>
+      <c r="K27" t="s">
+        <v>214</v>
+      </c>
+      <c r="L27" t="s">
+        <v>215</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>131</v>
+      </c>
+      <c r="O27" t="s">
+        <v>58</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>216</v>
+      </c>
+      <c r="X27" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>66242</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>219</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>220</v>
+      </c>
+      <c r="J28" t="s">
+        <v>221</v>
+      </c>
+      <c r="K28" t="s">
+        <v>222</v>
+      </c>
+      <c r="L28" t="s">
+        <v>223</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>131</v>
+      </c>
+      <c r="O28" t="s">
+        <v>224</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>216</v>
+      </c>
+      <c r="X28" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>66242</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>226</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>227</v>
+      </c>
+      <c r="J29" t="s">
+        <v>228</v>
+      </c>
+      <c r="K29" t="s">
+        <v>229</v>
+      </c>
+      <c r="L29" t="s">
+        <v>230</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>231</v>
+      </c>
+      <c r="O29" t="s">
+        <v>144</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>216</v>
+      </c>
+      <c r="X29" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>66242</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>233</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>234</v>
+      </c>
+      <c r="J30" t="s">
+        <v>235</v>
+      </c>
+      <c r="K30" t="s">
+        <v>236</v>
+      </c>
+      <c r="L30" t="s">
+        <v>237</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>231</v>
+      </c>
+      <c r="O30" t="s">
+        <v>58</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>216</v>
+      </c>
+      <c r="X30" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>66242</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>239</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>240</v>
+      </c>
+      <c r="J31" t="s">
+        <v>241</v>
+      </c>
+      <c r="K31" t="s">
+        <v>242</v>
+      </c>
+      <c r="L31" t="s">
+        <v>243</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>231</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>216</v>
+      </c>
+      <c r="X31" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>66242</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>245</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>246</v>
+      </c>
+      <c r="J32" t="s">
+        <v>247</v>
+      </c>
+      <c r="K32" t="s">
+        <v>248</v>
+      </c>
+      <c r="L32" t="s">
+        <v>249</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>231</v>
+      </c>
+      <c r="O32" t="s">
+        <v>58</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>216</v>
+      </c>
+      <c r="X32" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>66242</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>251</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>252</v>
+      </c>
+      <c r="J33" t="s">
+        <v>253</v>
+      </c>
+      <c r="K33" t="s">
+        <v>254</v>
+      </c>
+      <c r="L33" t="s">
+        <v>255</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>231</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>66242</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>257</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>258</v>
+      </c>
+      <c r="J34" t="s">
+        <v>253</v>
+      </c>
+      <c r="K34" t="s">
+        <v>259</v>
+      </c>
+      <c r="L34" t="s">
+        <v>260</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>231</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>216</v>
+      </c>
+      <c r="X34" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>66242</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>262</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>263</v>
+      </c>
+      <c r="J35" t="s">
+        <v>264</v>
+      </c>
+      <c r="K35" t="s">
+        <v>265</v>
+      </c>
+      <c r="L35" t="s">
+        <v>266</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>231</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>66242</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>268</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>269</v>
+      </c>
+      <c r="J36" t="s">
+        <v>270</v>
+      </c>
+      <c r="K36" t="s">
+        <v>271</v>
+      </c>
+      <c r="L36" t="s">
+        <v>272</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>273</v>
+      </c>
+      <c r="O36" t="s">
+        <v>58</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>66242</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>274</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>275</v>
+      </c>
+      <c r="J37" t="s">
+        <v>276</v>
+      </c>
+      <c r="K37" t="s">
+        <v>277</v>
+      </c>
+      <c r="L37" t="s">
+        <v>278</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>273</v>
+      </c>
+      <c r="O37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>66242</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>279</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>280</v>
+      </c>
+      <c r="J38" t="s">
+        <v>281</v>
+      </c>
+      <c r="K38" t="s">
+        <v>282</v>
+      </c>
+      <c r="L38" t="s">
+        <v>283</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>284</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>66242</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>286</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>287</v>
+      </c>
+      <c r="J39" t="s">
+        <v>288</v>
+      </c>
+      <c r="K39" t="s">
+        <v>289</v>
+      </c>
+      <c r="L39" t="s">
+        <v>290</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>291</v>
+      </c>
+      <c r="O39" t="s">
+        <v>52</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
